--- a/biology/Microbiologie/Colwellia_aestuarii/Colwellia_aestuarii.xlsx
+++ b/biology/Microbiologie/Colwellia_aestuarii/Colwellia_aestuarii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia aestuarii est une des espèces du genre bactérien Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae. Ces bactéries marines font partie de l'embranchement des Pseudomonadota.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce est la suivante : aes.tu.a’ri.i L. gen. neut. n. aestuarii, caractérisant le lieu d'isolement de la bactérie, des sédiments à marée basse[1],[2].
-Historique
-Dès sa description en 2006, l'espèce Colwellia aestuarii a été classée dans les Colwellia grâce à l'analyse de la séquence nucléotidique de l'ARNr 16S qui a montré qu'elle était proche en phylogénie des espèces de Colwellia déjà décrites[1]. Comme les autres bactéries du même genre, elle fait partie de la classe des Pseudomonadota (ex Proteobactéria).
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce est la suivante : aes.tu.a’ri.i L. gen. neut. n. aestuarii, caractérisant le lieu d'isolement de la bactérie, des sédiments à marée basse,.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès sa description en 2006, l'espèce Colwellia aestuarii a été classée dans les Colwellia grâce à l'analyse de la séquence nucléotidique de l'ARNr 16S qui a montré qu'elle était proche en phylogénie des espèces de Colwellia déjà décrites. Comme les autres bactéries du même genre, elle fait partie de la classe des Pseudomonadota (ex Proteobactéria).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colwellia_aestuarii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_aestuarii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colwellia aestuarii a été décrite en 2006, comme étant une bactérie à Gram négatif. Cette espèce est formée des bacilles incurvés et mobiles par l'intermédiaire d'un flagelle polaire unique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia aestuarii a été décrite en 2006, comme étant une bactérie à Gram négatif. Cette espèce est formée des bacilles incurvés et mobiles par l'intermédiaire d'un flagelle polaire unique.
 </t>
         </is>
       </c>
